--- a/Reference/Talon SRX.xlsx
+++ b/Reference/Talon SRX.xlsx
@@ -5,15 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FRC\CAN-Decoding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FRC\CAN-Decoding\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1A7A5D-AF68-4476-90B8-E7D1357AD073}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1207BB6-E565-40BA-928E-9031096A6A47}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{BF3312D0-8BF9-4F7E-9DE3-6D69B8A621D7}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15990" activeTab="2" xr2:uid="{BF3312D0-8BF9-4F7E-9DE3-6D69B8A621D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Talon SRX Frames" sheetId="1" r:id="rId1"/>
+    <sheet name="PCM Frames" sheetId="5" r:id="rId2"/>
+    <sheet name="PDP Frames" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="284">
   <si>
     <t>API ID</t>
   </si>
@@ -409,19 +413,493 @@
   </si>
   <si>
     <t>Based on reverse engineering https://github.com/CrossTheRoadElec/deprecated-HERO-SDK/blob/master/CTRE/LowLevel_TalonSrx.cs and https://github.com/CrossTheRoadElec/Phoenix-netmf/blob/master/CTRE/LowLevel/MotController_LowLevel.cs</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>0x9041400</t>
+  </si>
+  <si>
+    <t>Device Type</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Device ID</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Talon SRX Status 1</t>
+  </si>
+  <si>
+    <t>0x2041400</t>
+  </si>
+  <si>
+    <t>Talon SRX Status 2</t>
+  </si>
+  <si>
+    <t>Talon SRX Status 3</t>
+  </si>
+  <si>
+    <t>Talon SRX Status 4</t>
+  </si>
+  <si>
+    <t>Talon SRX Status 5</t>
+  </si>
+  <si>
+    <t>Talon SRX Status 6</t>
+  </si>
+  <si>
+    <t>Talon SRX Status 7</t>
+  </si>
+  <si>
+    <t>Talon SRX Status 8</t>
+  </si>
+  <si>
+    <t>Talon SRX Status 9</t>
+  </si>
+  <si>
+    <t>Talon SRX Status 10</t>
+  </si>
+  <si>
+    <t>Talon SRX Status 11</t>
+  </si>
+  <si>
+    <t>0x2041440</t>
+  </si>
+  <si>
+    <t>0x2041480</t>
+  </si>
+  <si>
+    <t>0x20414C0</t>
+  </si>
+  <si>
+    <t>0x2041500</t>
+  </si>
+  <si>
+    <t>0x2041540</t>
+  </si>
+  <si>
+    <t>0x2041580</t>
+  </si>
+  <si>
+    <t>0x20415C0</t>
+  </si>
+  <si>
+    <t>0x2041600</t>
+  </si>
+  <si>
+    <t>0x2041640</t>
+  </si>
+  <si>
+    <t>0x2041680</t>
+  </si>
+  <si>
+    <t>Talon SRX Control 1</t>
+  </si>
+  <si>
+    <t>Talon SRX Control 2</t>
+  </si>
+  <si>
+    <t>Talon SRX Control 3</t>
+  </si>
+  <si>
+    <t>Talon SRX Control 5</t>
+  </si>
+  <si>
+    <t>Talon SRX Control 6</t>
+  </si>
+  <si>
+    <t>Talon SRX Control 7</t>
+  </si>
+  <si>
+    <t>0x2040000</t>
+  </si>
+  <si>
+    <t>0x2040040</t>
+  </si>
+  <si>
+    <t>0x2040080</t>
+  </si>
+  <si>
+    <t>0x2040100</t>
+  </si>
+  <si>
+    <t>0x2040140</t>
+  </si>
+  <si>
+    <t>0x2040180</t>
+  </si>
+  <si>
+    <t>PCM Status 1</t>
+  </si>
+  <si>
+    <t>PCM Status Faults</t>
+  </si>
+  <si>
+    <t>0x9041440</t>
+  </si>
+  <si>
+    <t>PCM Control</t>
+  </si>
+  <si>
+    <t>PCM Control 1</t>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>0x02</t>
+  </si>
+  <si>
+    <t>0x03</t>
+  </si>
+  <si>
+    <t>0x04</t>
+  </si>
+  <si>
+    <t>0x05</t>
+  </si>
+  <si>
+    <t>0x06</t>
+  </si>
+  <si>
+    <t>0x07</t>
+  </si>
+  <si>
+    <t>Broadcast</t>
+  </si>
+  <si>
+    <t>National Instruments</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>DEKA</t>
+  </si>
+  <si>
+    <t>CTRE</t>
+  </si>
+  <si>
+    <t>0x08</t>
+  </si>
+  <si>
+    <t>0x09</t>
+  </si>
+  <si>
+    <t>Robot Controller</t>
+  </si>
+  <si>
+    <t>Motor Controller</t>
+  </si>
+  <si>
+    <t>Relay Controller</t>
+  </si>
+  <si>
+    <t>Gyro Sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accelerometer </t>
+  </si>
+  <si>
+    <t>Ultrasonic Sensor</t>
+  </si>
+  <si>
+    <t>Gear Tooth Sensor</t>
+  </si>
+  <si>
+    <t>PCM</t>
+  </si>
+  <si>
+    <t>PDP</t>
+  </si>
+  <si>
+    <t>0x9041C00</t>
+  </si>
+  <si>
+    <t>PDP Status 1</t>
+  </si>
+  <si>
+    <t>0x08041400</t>
+  </si>
+  <si>
+    <t>PDP Control</t>
+  </si>
+  <si>
+    <t>0x08041C00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spark MAX </t>
+  </si>
+  <si>
+    <t>0x02051800</t>
+  </si>
+  <si>
+    <t>0x02051840</t>
+  </si>
+  <si>
+    <t>Solenoid 0?</t>
+  </si>
+  <si>
+    <t>Solenoid 1?</t>
+  </si>
+  <si>
+    <t>Solenoid 2?</t>
+  </si>
+  <si>
+    <t>Solenoid 3?</t>
+  </si>
+  <si>
+    <t>Solenoid 4?</t>
+  </si>
+  <si>
+    <t>Solenoid 5?</t>
+  </si>
+  <si>
+    <t>Solenoid 6?</t>
+  </si>
+  <si>
+    <t>Solenoid 7?</t>
+  </si>
+  <si>
+    <t>Compressor On</t>
+  </si>
+  <si>
+    <t>Sticky Fault Fuse Tripped</t>
+  </si>
+  <si>
+    <t>Sticky Fault Compressor Current Too High</t>
+  </si>
+  <si>
+    <t>Fault Fuse Tripped</t>
+  </si>
+  <si>
+    <t>Fault Compressor Current Too High</t>
+  </si>
+  <si>
+    <t>Closed Loop Enabled</t>
+  </si>
+  <si>
+    <t>Pressure Switch Enabled?</t>
+  </si>
+  <si>
+    <t>Battery Voltage</t>
+  </si>
+  <si>
+    <t>Solenoid Voltage</t>
+  </si>
+  <si>
+    <t>Compressor Current</t>
+  </si>
+  <si>
+    <t>Sticky Fault dI Too High</t>
+  </si>
+  <si>
+    <t>Fault dI Too High</t>
+  </si>
+  <si>
+    <t>Module Enabled</t>
+  </si>
+  <si>
+    <t>Closed Loop Output</t>
+  </si>
+  <si>
+    <t>Token Seed</t>
+  </si>
+  <si>
+    <t>STATUS_SOL_FAULTS</t>
+  </si>
+  <si>
+    <t>Solenoid Blacklist</t>
+  </si>
+  <si>
+    <t>Reserved</t>
+  </si>
+  <si>
+    <t>Sticky Fault Compressor No Current</t>
+  </si>
+  <si>
+    <t>Fault Compressor No Current</t>
+  </si>
+  <si>
+    <t>Sticky Fault Solenoid Jumper</t>
+  </si>
+  <si>
+    <t>Fault Solenoid Jumper</t>
+  </si>
+  <si>
+    <t>STATUS_DEBUG</t>
+  </si>
+  <si>
+    <t>Token Fails</t>
+  </si>
+  <si>
+    <t>Last Failed Token</t>
+  </si>
+  <si>
+    <t>Token Success</t>
+  </si>
+  <si>
+    <t>CONTROL_1</t>
+  </si>
+  <si>
+    <t>CONTROL_2</t>
+  </si>
+  <si>
+    <t>CONTROL_3</t>
+  </si>
+  <si>
+    <t>PCM Supplemental Control</t>
+  </si>
+  <si>
+    <t>One-Shot Duration</t>
+  </si>
+  <si>
+    <t>0x70</t>
+  </si>
+  <si>
+    <t>0x9041c40</t>
+  </si>
+  <si>
+    <t>0x71</t>
+  </si>
+  <si>
+    <t>0x72</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>Closed Loop Enable</t>
+  </si>
+  <si>
+    <t>Clear Sticky Faults</t>
+  </si>
+  <si>
+    <t>One Shot</t>
+  </si>
+  <si>
+    <t>One-shot Duration</t>
+  </si>
+  <si>
+    <t>Status1</t>
+  </si>
+  <si>
+    <t>Status2</t>
+  </si>
+  <si>
+    <t>Status3</t>
+  </si>
+  <si>
+    <t>StatusEnergy</t>
+  </si>
+  <si>
+    <t>Control1</t>
+  </si>
+  <si>
+    <t>Channel 1</t>
+  </si>
+  <si>
+    <t>Channel 2</t>
+  </si>
+  <si>
+    <t>Channel 3</t>
+  </si>
+  <si>
+    <t>Channel 4</t>
+  </si>
+  <si>
+    <t>Channel 5</t>
+  </si>
+  <si>
+    <t>Channel 6</t>
+  </si>
+  <si>
+    <t>Channel 7</t>
+  </si>
+  <si>
+    <t>Channel 8</t>
+  </si>
+  <si>
+    <t>Channel 9</t>
+  </si>
+  <si>
+    <t>Channel 10</t>
+  </si>
+  <si>
+    <t>Channel 11</t>
+  </si>
+  <si>
+    <t>Channel 12</t>
+  </si>
+  <si>
+    <t>Channel 13</t>
+  </si>
+  <si>
+    <t>Channel 14</t>
+  </si>
+  <si>
+    <t>Channel 15</t>
+  </si>
+  <si>
+    <t>Channel 16</t>
+  </si>
+  <si>
+    <t>Battery Internal Resistance (mOhms)</t>
+  </si>
+  <si>
+    <t>Bus Voltage</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>TmeasMs_likelywillbe20ms</t>
+  </si>
+  <si>
+    <t>TotalCurrent_125mAperunit</t>
+  </si>
+  <si>
+    <t>Power_125mWperunit</t>
+  </si>
+  <si>
+    <t>Energy_125mWPerUnitXTmeas</t>
+  </si>
+  <si>
+    <t>Reset PDP Total Energy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -432,7 +910,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -458,24 +936,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -486,14 +1001,216 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -839,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C66F02-8842-429A-91FE-ACA074BE81FC}">
   <dimension ref="A1:BP18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:L4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,76 +1582,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BM1" s="2"/>
-      <c r="BN1" s="2"/>
-      <c r="BO1" s="2"/>
-      <c r="BP1" s="3"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="9"/>
+      <c r="BD1" s="9"/>
+      <c r="BE1" s="9"/>
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="9"/>
+      <c r="BH1" s="9"/>
+      <c r="BI1" s="9"/>
+      <c r="BJ1" s="9"/>
+      <c r="BK1" s="9"/>
+      <c r="BL1" s="9"/>
+      <c r="BM1" s="9"/>
+      <c r="BN1" s="9"/>
+      <c r="BO1" s="9"/>
+      <c r="BP1" s="10"/>
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
@@ -1145,17 +1862,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:68" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:68" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -1177,7 +1894,7 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
-      <c r="T4" s="9"/>
+      <c r="T4" s="8"/>
       <c r="U4" s="6" t="s">
         <v>34</v>
       </c>
@@ -1187,24 +1904,24 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="4" t="s">
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AD4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AF4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AG4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="AH4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="AI4" s="7"/>
-      <c r="AJ4" s="9"/>
+      <c r="AJ4" s="8"/>
       <c r="AK4" s="7" t="s">
         <v>32</v>
       </c>
@@ -1214,7 +1931,7 @@
       <c r="AO4" s="7"/>
       <c r="AP4" s="7"/>
       <c r="AQ4" s="7"/>
-      <c r="AR4" s="9"/>
+      <c r="AR4" s="8"/>
       <c r="AS4" s="6" t="s">
         <v>39</v>
       </c>
@@ -1226,7 +1943,7 @@
       <c r="AW4" s="7"/>
       <c r="AX4" s="7"/>
       <c r="AY4" s="7"/>
-      <c r="AZ4" s="8" t="s">
+      <c r="AZ4" s="4" t="s">
         <v>38</v>
       </c>
       <c r="BA4" s="6" t="s">
@@ -1234,34 +1951,34 @@
       </c>
       <c r="BB4" s="7"/>
       <c r="BC4" s="7"/>
-      <c r="BD4" s="4" t="s">
+      <c r="BD4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="BE4" s="4" t="s">
+      <c r="BE4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="BF4" s="4" t="s">
+      <c r="BF4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="BG4" s="4" t="s">
+      <c r="BG4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="BH4" s="5" t="s">
+      <c r="BH4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="BP4" s="5"/>
-    </row>
-    <row r="5" spans="1:68" s="4" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="BP4" s="3"/>
+    </row>
+    <row r="5" spans="1:68" s="2" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -1273,7 +1990,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="9"/>
+      <c r="L5" s="8"/>
       <c r="M5" s="6" t="s">
         <v>50</v>
       </c>
@@ -1283,7 +2000,7 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
-      <c r="T5" s="9"/>
+      <c r="T5" s="8"/>
       <c r="U5" s="6" t="s">
         <v>51</v>
       </c>
@@ -1293,7 +2010,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="9"/>
+      <c r="AB5" s="8"/>
       <c r="AC5" s="6" t="s">
         <v>52</v>
       </c>
@@ -1303,7 +2020,7 @@
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
       <c r="AI5" s="7"/>
-      <c r="AJ5" s="9"/>
+      <c r="AJ5" s="8"/>
       <c r="AK5" s="6" t="s">
         <v>53</v>
       </c>
@@ -1313,7 +2030,7 @@
       <c r="AO5" s="7"/>
       <c r="AP5" s="7"/>
       <c r="AQ5" s="7"/>
-      <c r="AR5" s="9"/>
+      <c r="AR5" s="8"/>
       <c r="AS5" s="6" t="s">
         <v>56</v>
       </c>
@@ -1323,48 +2040,48 @@
       <c r="AW5" s="7"/>
       <c r="AX5" s="7"/>
       <c r="AY5" s="7"/>
-      <c r="AZ5" s="9"/>
+      <c r="AZ5" s="8"/>
       <c r="BA5" s="6" t="s">
         <v>55</v>
       </c>
       <c r="BB5" s="7"/>
-      <c r="BC5" s="4" t="s">
+      <c r="BC5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="BD5" s="4" t="s">
+      <c r="BD5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="BE5" s="4" t="s">
+      <c r="BE5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="BF5" s="4" t="s">
+      <c r="BF5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BG5" s="4" t="s">
+      <c r="BG5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BH5" s="5" t="s">
+      <c r="BH5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="BI5" s="4" t="s">
+      <c r="BI5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BL5" s="4" t="s">
+      <c r="BL5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BP5" s="5"/>
-    </row>
-    <row r="6" spans="1:68" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="BP5" s="3"/>
+    </row>
+    <row r="6" spans="1:68" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1376,7 +2093,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="9"/>
+      <c r="L6" s="8"/>
       <c r="M6" s="6" t="s">
         <v>59</v>
       </c>
@@ -1386,7 +2103,7 @@
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
-      <c r="T6" s="9"/>
+      <c r="T6" s="8"/>
       <c r="U6" s="6" t="s">
         <v>60</v>
       </c>
@@ -1396,7 +2113,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="9"/>
+      <c r="AB6" s="8"/>
       <c r="AC6" s="6" t="s">
         <v>61</v>
       </c>
@@ -1406,7 +2123,7 @@
       <c r="AG6" s="7"/>
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
-      <c r="AJ6" s="9"/>
+      <c r="AJ6" s="8"/>
       <c r="AK6" s="6" t="s">
         <v>62</v>
       </c>
@@ -1416,7 +2133,7 @@
       <c r="AO6" s="7"/>
       <c r="AP6" s="7"/>
       <c r="AQ6" s="7"/>
-      <c r="AR6" s="9"/>
+      <c r="AR6" s="8"/>
       <c r="AS6" s="6" t="s">
         <v>63</v>
       </c>
@@ -1426,7 +2143,7 @@
       <c r="AW6" s="7"/>
       <c r="AX6" s="7"/>
       <c r="AY6" s="7"/>
-      <c r="AZ6" s="9"/>
+      <c r="AZ6" s="8"/>
       <c r="BA6" s="6" t="s">
         <v>64</v>
       </c>
@@ -1436,29 +2153,29 @@
       <c r="BE6" s="7"/>
       <c r="BF6" s="7"/>
       <c r="BG6" s="7"/>
-      <c r="BH6" s="9"/>
-      <c r="BI6" s="4" t="s">
+      <c r="BH6" s="8"/>
+      <c r="BI6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BJ6" s="4" t="s">
+      <c r="BJ6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BK6" s="4" t="s">
+      <c r="BK6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BP6" s="5"/>
-    </row>
-    <row r="7" spans="1:68" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="BP6" s="3"/>
+    </row>
+    <row r="7" spans="1:68" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -1470,7 +2187,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="9"/>
+      <c r="L7" s="8"/>
       <c r="M7" s="6" t="s">
         <v>69</v>
       </c>
@@ -1480,7 +2197,7 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
-      <c r="T7" s="9"/>
+      <c r="T7" s="8"/>
       <c r="U7" s="6" t="s">
         <v>70</v>
       </c>
@@ -1490,7 +2207,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
-      <c r="AB7" s="9"/>
+      <c r="AB7" s="8"/>
       <c r="AC7" s="6" t="s">
         <v>71</v>
       </c>
@@ -1500,7 +2217,7 @@
       <c r="AG7" s="7"/>
       <c r="AH7" s="7"/>
       <c r="AI7" s="7"/>
-      <c r="AJ7" s="9"/>
+      <c r="AJ7" s="8"/>
       <c r="AK7" s="6" t="s">
         <v>72</v>
       </c>
@@ -1510,7 +2227,7 @@
       <c r="AO7" s="7"/>
       <c r="AP7" s="7"/>
       <c r="AQ7" s="7"/>
-      <c r="AR7" s="9"/>
+      <c r="AR7" s="8"/>
       <c r="AS7" s="6" t="s">
         <v>73</v>
       </c>
@@ -1520,7 +2237,7 @@
       <c r="AW7" s="7"/>
       <c r="AX7" s="7"/>
       <c r="AY7" s="7"/>
-      <c r="AZ7" s="9"/>
+      <c r="AZ7" s="8"/>
       <c r="BA7" s="6" t="s">
         <v>42</v>
       </c>
@@ -1530,26 +2247,26 @@
       <c r="BE7" s="7"/>
       <c r="BF7" s="7"/>
       <c r="BG7" s="7"/>
-      <c r="BH7" s="9"/>
-      <c r="BL7" s="4" t="s">
+      <c r="BH7" s="8"/>
+      <c r="BL7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BM7" s="4" t="s">
+      <c r="BM7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BP7" s="5"/>
-    </row>
-    <row r="8" spans="1:68" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="BP7" s="3"/>
+    </row>
+    <row r="8" spans="1:68" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>111</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -1561,7 +2278,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="9"/>
+      <c r="L8" s="8"/>
       <c r="M8" s="6" t="s">
         <v>77</v>
       </c>
@@ -1571,7 +2288,7 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
-      <c r="T8" s="9"/>
+      <c r="T8" s="8"/>
       <c r="U8" s="6" t="s">
         <v>78</v>
       </c>
@@ -1581,7 +2298,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
-      <c r="AB8" s="9"/>
+      <c r="AB8" s="8"/>
       <c r="AC8" s="6" t="s">
         <v>79</v>
       </c>
@@ -1591,7 +2308,7 @@
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
       <c r="AI8" s="7"/>
-      <c r="AJ8" s="9"/>
+      <c r="AJ8" s="8"/>
       <c r="AK8" s="6" t="s">
         <v>80</v>
       </c>
@@ -1601,7 +2318,7 @@
       <c r="AO8" s="7"/>
       <c r="AP8" s="7"/>
       <c r="AQ8" s="7"/>
-      <c r="AR8" s="9"/>
+      <c r="AR8" s="8"/>
       <c r="AS8" s="6" t="s">
         <v>81</v>
       </c>
@@ -1611,63 +2328,63 @@
       <c r="AW8" s="7"/>
       <c r="AX8" s="7"/>
       <c r="AY8" s="7"/>
-      <c r="AZ8" s="9"/>
-      <c r="BH8" s="5"/>
-      <c r="BP8" s="5"/>
-    </row>
-    <row r="9" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="AZ8" s="8"/>
+      <c r="BH8" s="3"/>
+      <c r="BP8" s="3"/>
+    </row>
+    <row r="9" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AR9" s="5"/>
-      <c r="AZ9" s="5"/>
-      <c r="BH9" s="5"/>
-      <c r="BP9" s="5"/>
-    </row>
-    <row r="10" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="D9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AZ9" s="3"/>
+      <c r="BH9" s="3"/>
+      <c r="BP9" s="3"/>
+    </row>
+    <row r="10" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AR10" s="5"/>
-      <c r="AZ10" s="5"/>
-      <c r="BH10" s="5"/>
-      <c r="BP10" s="5"/>
-    </row>
-    <row r="11" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="L10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BH10" s="3"/>
+      <c r="BP10" s="3"/>
+    </row>
+    <row r="11" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -1679,7 +2396,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="9"/>
+      <c r="L11" s="8"/>
       <c r="M11" s="6" t="s">
         <v>94</v>
       </c>
@@ -1689,7 +2406,7 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
-      <c r="T11" s="9"/>
+      <c r="T11" s="8"/>
       <c r="U11" s="6" t="s">
         <v>95</v>
       </c>
@@ -1699,8 +2416,8 @@
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
-      <c r="AB11" s="9"/>
-      <c r="AJ11" s="5"/>
+      <c r="AB11" s="8"/>
+      <c r="AJ11" s="3"/>
       <c r="AK11" s="6" t="s">
         <v>98</v>
       </c>
@@ -1710,7 +2427,7 @@
       <c r="AO11" s="7"/>
       <c r="AP11" s="7"/>
       <c r="AQ11" s="7"/>
-      <c r="AR11" s="9"/>
+      <c r="AR11" s="8"/>
       <c r="AS11" s="6" t="s">
         <v>99</v>
       </c>
@@ -1720,7 +2437,7 @@
       <c r="AW11" s="7"/>
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
-      <c r="AZ11" s="9"/>
+      <c r="AZ11" s="8"/>
       <c r="BA11" s="6" t="s">
         <v>96</v>
       </c>
@@ -1730,7 +2447,7 @@
       <c r="BE11" s="7"/>
       <c r="BF11" s="7"/>
       <c r="BG11" s="7"/>
-      <c r="BH11" s="9"/>
+      <c r="BH11" s="8"/>
       <c r="BI11" s="6" t="s">
         <v>97</v>
       </c>
@@ -1740,46 +2457,46 @@
       <c r="BM11" s="7"/>
       <c r="BN11" s="7"/>
       <c r="BO11" s="7"/>
-      <c r="BP11" s="9"/>
-    </row>
-    <row r="12" spans="1:68" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="BP11" s="8"/>
+    </row>
+    <row r="12" spans="1:68" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="L12" s="5"/>
+      <c r="L12" s="3"/>
       <c r="Q12" s="7" t="s">
         <v>101</v>
       </c>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
-      <c r="T12" s="9"/>
-      <c r="AB12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AR12" s="5"/>
-      <c r="AZ12" s="5"/>
-      <c r="BH12" s="5"/>
-      <c r="BP12" s="5"/>
-    </row>
-    <row r="13" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="T12" s="8"/>
+      <c r="AB12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AZ12" s="3"/>
+      <c r="BH12" s="3"/>
+      <c r="BP12" s="3"/>
+    </row>
+    <row r="13" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -1791,7 +2508,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="9"/>
+      <c r="L13" s="8"/>
       <c r="M13" s="6" t="s">
         <v>104</v>
       </c>
@@ -1801,7 +2518,7 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
-      <c r="T13" s="9"/>
+      <c r="T13" s="8"/>
       <c r="U13" s="6" t="s">
         <v>105</v>
       </c>
@@ -1811,7 +2528,7 @@
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
-      <c r="AB13" s="9"/>
+      <c r="AB13" s="8"/>
       <c r="AC13" s="6" t="s">
         <v>106</v>
       </c>
@@ -1821,7 +2538,7 @@
       <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
       <c r="AI13" s="7"/>
-      <c r="AJ13" s="9"/>
+      <c r="AJ13" s="8"/>
       <c r="AK13" s="6" t="s">
         <v>107</v>
       </c>
@@ -1831,22 +2548,22 @@
       <c r="AO13" s="7"/>
       <c r="AP13" s="7"/>
       <c r="AQ13" s="7"/>
-      <c r="AR13" s="9"/>
-      <c r="AZ13" s="5"/>
-      <c r="BH13" s="5"/>
-      <c r="BP13" s="5"/>
-    </row>
-    <row r="14" spans="1:68" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="AR13" s="8"/>
+      <c r="AZ13" s="3"/>
+      <c r="BH13" s="3"/>
+      <c r="BP13" s="3"/>
+    </row>
+    <row r="14" spans="1:68" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="6" t="s">
         <v>108</v>
       </c>
@@ -1856,66 +2573,101 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="9"/>
+      <c r="L14" s="8"/>
       <c r="Q14" s="7" t="s">
         <v>109</v>
       </c>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="9"/>
-      <c r="AB14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AR14" s="5"/>
-      <c r="AZ14" s="5"/>
-      <c r="BH14" s="5"/>
-      <c r="BP14" s="5"/>
+      <c r="T14" s="8"/>
+      <c r="AB14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BH14" s="3"/>
+      <c r="BP14" s="3"/>
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>126</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="BA4:BC4"/>
+    <mergeCell ref="AS4:AU4"/>
+    <mergeCell ref="BA7:BH7"/>
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="M5:T5"/>
+    <mergeCell ref="U5:AB5"/>
+    <mergeCell ref="AC5:AJ5"/>
+    <mergeCell ref="AK5:AR5"/>
+    <mergeCell ref="AS5:AZ5"/>
+    <mergeCell ref="AK4:AR4"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="E4:L4"/>
+    <mergeCell ref="M4:T4"/>
+    <mergeCell ref="U4:AB4"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="M6:T6"/>
+    <mergeCell ref="U6:AB6"/>
+    <mergeCell ref="AC6:AJ6"/>
+    <mergeCell ref="AK6:AR6"/>
+    <mergeCell ref="AS6:AZ6"/>
+    <mergeCell ref="BA6:BH6"/>
+    <mergeCell ref="AS8:AZ8"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="M7:T7"/>
+    <mergeCell ref="U7:AB7"/>
+    <mergeCell ref="AC7:AJ7"/>
+    <mergeCell ref="AK7:AR7"/>
+    <mergeCell ref="AS7:AZ7"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="M8:T8"/>
+    <mergeCell ref="U8:AB8"/>
+    <mergeCell ref="AC8:AJ8"/>
+    <mergeCell ref="AK8:AR8"/>
     <mergeCell ref="E14:L14"/>
     <mergeCell ref="Q14:T14"/>
     <mergeCell ref="A1:BP1"/>
@@ -1932,63 +2684,5631 @@
     <mergeCell ref="BI11:BP11"/>
     <mergeCell ref="AK11:AR11"/>
     <mergeCell ref="AS11:AZ11"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="M8:T8"/>
-    <mergeCell ref="U8:AB8"/>
-    <mergeCell ref="AC8:AJ8"/>
-    <mergeCell ref="AK8:AR8"/>
-    <mergeCell ref="AS8:AZ8"/>
-    <mergeCell ref="E7:L7"/>
-    <mergeCell ref="M7:T7"/>
-    <mergeCell ref="U7:AB7"/>
-    <mergeCell ref="AC7:AJ7"/>
-    <mergeCell ref="AK7:AR7"/>
-    <mergeCell ref="AS7:AZ7"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="M6:T6"/>
-    <mergeCell ref="U6:AB6"/>
-    <mergeCell ref="AC6:AJ6"/>
-    <mergeCell ref="AK6:AR6"/>
-    <mergeCell ref="AS6:AZ6"/>
-    <mergeCell ref="BA6:BH6"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="BA4:BC4"/>
-    <mergeCell ref="AS4:AU4"/>
-    <mergeCell ref="BA7:BH7"/>
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="M5:T5"/>
-    <mergeCell ref="U5:AB5"/>
-    <mergeCell ref="AC5:AJ5"/>
-    <mergeCell ref="AK5:AR5"/>
-    <mergeCell ref="AS5:AZ5"/>
-    <mergeCell ref="AK4:AR4"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="E4:L4"/>
-    <mergeCell ref="M4:T4"/>
-    <mergeCell ref="U4:AB4"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:BP4 E9:BP10 BC5:BP5 BA5:BA6 BI6:BP6 E5:E8 M5:M8 U5:U8 AC5:AC8 AK5:AK8 AS5:AS8 BA7:BP8 E11 AC11:AK11 BI11 BA11 E12:Q12 E13:E14 M13 U12:BP12 U13 AC13 AK13 AS13:BP13 M14:Q14 U14:BP14">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
+    <cfRule type="containsBlanks" dxfId="21" priority="4">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="20" priority="3">
       <formula>LEN(TRIM(M11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="19" priority="2">
       <formula>LEN(TRIM(U11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS11">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="18" priority="1">
       <formula>LEN(TRIM(AS11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC99D79-202F-4376-863C-13667ACFB0EB}">
+  <dimension ref="A1:BP18"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="1" customWidth="1"/>
+    <col min="13" max="19" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="1" customWidth="1"/>
+    <col min="21" max="27" width="10.7109375" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" style="1" customWidth="1"/>
+    <col min="29" max="35" width="10.7109375" customWidth="1"/>
+    <col min="36" max="36" width="10.7109375" style="1" customWidth="1"/>
+    <col min="37" max="43" width="10.7109375" customWidth="1"/>
+    <col min="44" max="44" width="10.7109375" style="1" customWidth="1"/>
+    <col min="45" max="51" width="10.7109375" customWidth="1"/>
+    <col min="52" max="52" width="10.7109375" style="1" customWidth="1"/>
+    <col min="53" max="59" width="10.7109375" customWidth="1"/>
+    <col min="60" max="60" width="10.7109375" style="1" customWidth="1"/>
+    <col min="61" max="67" width="10.7109375" customWidth="1"/>
+    <col min="68" max="68" width="10.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="9"/>
+      <c r="BD1" s="9"/>
+      <c r="BE1" s="9"/>
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="9"/>
+      <c r="BH1" s="9"/>
+      <c r="BI1" s="9"/>
+      <c r="BJ1" s="9"/>
+      <c r="BK1" s="9"/>
+      <c r="BL1" s="9"/>
+      <c r="BM1" s="9"/>
+      <c r="BN1" s="9"/>
+      <c r="BO1" s="9"/>
+      <c r="BP1" s="10"/>
+    </row>
+    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>15</v>
+      </c>
+      <c r="N3">
+        <v>14</v>
+      </c>
+      <c r="O3">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <v>12</v>
+      </c>
+      <c r="Q3">
+        <v>11</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>9</v>
+      </c>
+      <c r="T3" s="1">
+        <v>8</v>
+      </c>
+      <c r="U3">
+        <v>23</v>
+      </c>
+      <c r="V3">
+        <v>22</v>
+      </c>
+      <c r="W3">
+        <v>21</v>
+      </c>
+      <c r="X3">
+        <v>20</v>
+      </c>
+      <c r="Y3">
+        <v>19</v>
+      </c>
+      <c r="Z3">
+        <v>18</v>
+      </c>
+      <c r="AA3">
+        <v>17</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>16</v>
+      </c>
+      <c r="AC3">
+        <v>31</v>
+      </c>
+      <c r="AD3">
+        <v>30</v>
+      </c>
+      <c r="AE3">
+        <v>29</v>
+      </c>
+      <c r="AF3">
+        <v>28</v>
+      </c>
+      <c r="AG3">
+        <v>27</v>
+      </c>
+      <c r="AH3">
+        <v>26</v>
+      </c>
+      <c r="AI3">
+        <v>25</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>24</v>
+      </c>
+      <c r="AK3">
+        <v>39</v>
+      </c>
+      <c r="AL3">
+        <v>38</v>
+      </c>
+      <c r="AM3">
+        <v>37</v>
+      </c>
+      <c r="AN3">
+        <v>36</v>
+      </c>
+      <c r="AO3">
+        <v>35</v>
+      </c>
+      <c r="AP3">
+        <v>34</v>
+      </c>
+      <c r="AQ3">
+        <v>33</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>32</v>
+      </c>
+      <c r="AS3">
+        <v>47</v>
+      </c>
+      <c r="AT3">
+        <v>46</v>
+      </c>
+      <c r="AU3">
+        <v>45</v>
+      </c>
+      <c r="AV3">
+        <v>44</v>
+      </c>
+      <c r="AW3">
+        <v>43</v>
+      </c>
+      <c r="AX3">
+        <v>42</v>
+      </c>
+      <c r="AY3">
+        <v>41</v>
+      </c>
+      <c r="AZ3" s="1">
+        <v>40</v>
+      </c>
+      <c r="BA3">
+        <v>55</v>
+      </c>
+      <c r="BB3">
+        <v>54</v>
+      </c>
+      <c r="BC3">
+        <v>53</v>
+      </c>
+      <c r="BD3">
+        <v>52</v>
+      </c>
+      <c r="BE3">
+        <v>51</v>
+      </c>
+      <c r="BF3">
+        <v>50</v>
+      </c>
+      <c r="BG3">
+        <v>49</v>
+      </c>
+      <c r="BH3" s="1">
+        <v>48</v>
+      </c>
+      <c r="BI3">
+        <v>63</v>
+      </c>
+      <c r="BJ3">
+        <v>62</v>
+      </c>
+      <c r="BK3">
+        <v>61</v>
+      </c>
+      <c r="BL3">
+        <v>60</v>
+      </c>
+      <c r="BM3">
+        <v>59</v>
+      </c>
+      <c r="BN3">
+        <v>58</v>
+      </c>
+      <c r="BO3">
+        <v>57</v>
+      </c>
+      <c r="BP3" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7"/>
+      <c r="AW4" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AX4" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AY4" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AZ4" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="BA4" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="BB4" s="18"/>
+      <c r="BC4" s="18"/>
+      <c r="BD4" s="18"/>
+      <c r="BE4" s="18"/>
+      <c r="BF4" s="18"/>
+      <c r="BG4" s="18"/>
+      <c r="BH4" s="18"/>
+      <c r="BI4" s="18"/>
+      <c r="BJ4" s="18"/>
+      <c r="BK4" s="18"/>
+      <c r="BL4" s="18"/>
+      <c r="BM4" s="18"/>
+      <c r="BN4" s="18"/>
+      <c r="BO4" s="18"/>
+      <c r="BP4" s="8"/>
+    </row>
+    <row r="5" spans="1:68" s="2" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="17"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="17"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="17"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="17"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="17"/>
+      <c r="BH5" s="3"/>
+      <c r="BP5" s="3"/>
+    </row>
+    <row r="6" spans="1:68" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="18"/>
+      <c r="AP6" s="18"/>
+      <c r="AQ6" s="18"/>
+      <c r="AR6" s="18"/>
+      <c r="AS6" s="18"/>
+      <c r="AT6" s="18"/>
+      <c r="AU6" s="18"/>
+      <c r="AV6" s="18"/>
+      <c r="AW6" s="18"/>
+      <c r="AX6" s="18"/>
+      <c r="AY6" s="18"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="17"/>
+      <c r="BH6" s="3"/>
+      <c r="BP6" s="3"/>
+    </row>
+    <row r="7" spans="1:68" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC7" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG7" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="8"/>
+      <c r="BA7" s="17"/>
+      <c r="BH7" s="3"/>
+      <c r="BP7" s="3"/>
+    </row>
+    <row r="8" spans="1:68" s="2" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="17"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="17"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="17"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="17"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="17"/>
+      <c r="AZ8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BP8" s="3"/>
+    </row>
+    <row r="9" spans="1:68" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="7"/>
+      <c r="BC9" s="7"/>
+      <c r="BD9" s="7"/>
+      <c r="BE9" s="7"/>
+      <c r="BF9" s="7"/>
+      <c r="BG9" s="7"/>
+      <c r="BH9" s="7"/>
+      <c r="BI9" s="7"/>
+      <c r="BJ9" s="7"/>
+      <c r="BK9" s="7"/>
+      <c r="BL9" s="7"/>
+      <c r="BM9" s="7"/>
+      <c r="BN9" s="7"/>
+      <c r="BO9" s="7"/>
+      <c r="BP9" s="8"/>
+    </row>
+    <row r="10" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BH10" s="3"/>
+      <c r="BP10" s="3"/>
+    </row>
+    <row r="11" spans="1:68" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="3"/>
+      <c r="E11" s="17"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="17"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="17"/>
+      <c r="AB11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="17"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="17"/>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="17"/>
+      <c r="BH11" s="3"/>
+      <c r="BI11" s="17"/>
+      <c r="BP11" s="3"/>
+    </row>
+    <row r="12" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AZ12" s="3"/>
+      <c r="BH12" s="3"/>
+      <c r="BP12" s="3"/>
+    </row>
+    <row r="13" spans="1:68" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+      <c r="E13" s="17"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="17"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="17"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="17"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="17"/>
+      <c r="AR13" s="3"/>
+      <c r="AZ13" s="3"/>
+      <c r="BH13" s="3"/>
+      <c r="BP13" s="3"/>
+    </row>
+    <row r="14" spans="1:68" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+      <c r="E14" s="17"/>
+      <c r="L14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BH14" s="3"/>
+      <c r="BP14" s="3"/>
+    </row>
+    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="E9:BP9"/>
+    <mergeCell ref="AC4:AL4"/>
+    <mergeCell ref="AM4:AV4"/>
+    <mergeCell ref="BA4:BP4"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="E6:T6"/>
+    <mergeCell ref="U6:AJ6"/>
+    <mergeCell ref="AK6:AZ6"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="AG7:AJ7"/>
+    <mergeCell ref="AK7:AZ7"/>
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="A1:BP1"/>
+    <mergeCell ref="U4:AB4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E8:BP8 E4:U4 AC4 AM4 AW4:BA4 M5:Q5 U5:BP5 U6 E5:E7 U7:AG7 AK6:AK7 BA6:BP7 E10:BP40 E9">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(E4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0551DA37-6792-4CEA-9035-C14AD4327C8F}">
+  <dimension ref="A1:BP44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="1" customWidth="1"/>
+    <col min="13" max="19" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="1" customWidth="1"/>
+    <col min="21" max="27" width="10.7109375" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" style="1" customWidth="1"/>
+    <col min="29" max="35" width="10.7109375" customWidth="1"/>
+    <col min="36" max="36" width="10.7109375" style="1" customWidth="1"/>
+    <col min="37" max="43" width="10.7109375" customWidth="1"/>
+    <col min="44" max="44" width="10.7109375" style="1" customWidth="1"/>
+    <col min="45" max="51" width="10.7109375" customWidth="1"/>
+    <col min="52" max="52" width="10.7109375" style="1" customWidth="1"/>
+    <col min="53" max="59" width="10.7109375" customWidth="1"/>
+    <col min="60" max="60" width="10.7109375" style="1" customWidth="1"/>
+    <col min="61" max="67" width="10.7109375" customWidth="1"/>
+    <col min="68" max="68" width="10.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="9"/>
+      <c r="BD1" s="9"/>
+      <c r="BE1" s="9"/>
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="9"/>
+      <c r="BH1" s="9"/>
+      <c r="BI1" s="9"/>
+      <c r="BJ1" s="9"/>
+      <c r="BK1" s="9"/>
+      <c r="BL1" s="9"/>
+      <c r="BM1" s="9"/>
+      <c r="BN1" s="9"/>
+      <c r="BO1" s="9"/>
+      <c r="BP1" s="10"/>
+    </row>
+    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>15</v>
+      </c>
+      <c r="N3">
+        <v>14</v>
+      </c>
+      <c r="O3">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <v>12</v>
+      </c>
+      <c r="Q3">
+        <v>11</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>9</v>
+      </c>
+      <c r="T3" s="1">
+        <v>8</v>
+      </c>
+      <c r="U3">
+        <v>23</v>
+      </c>
+      <c r="V3">
+        <v>22</v>
+      </c>
+      <c r="W3">
+        <v>21</v>
+      </c>
+      <c r="X3">
+        <v>20</v>
+      </c>
+      <c r="Y3">
+        <v>19</v>
+      </c>
+      <c r="Z3">
+        <v>18</v>
+      </c>
+      <c r="AA3">
+        <v>17</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>16</v>
+      </c>
+      <c r="AC3">
+        <v>31</v>
+      </c>
+      <c r="AD3">
+        <v>30</v>
+      </c>
+      <c r="AE3">
+        <v>29</v>
+      </c>
+      <c r="AF3">
+        <v>28</v>
+      </c>
+      <c r="AG3">
+        <v>27</v>
+      </c>
+      <c r="AH3">
+        <v>26</v>
+      </c>
+      <c r="AI3">
+        <v>25</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>24</v>
+      </c>
+      <c r="AK3">
+        <v>39</v>
+      </c>
+      <c r="AL3">
+        <v>38</v>
+      </c>
+      <c r="AM3">
+        <v>37</v>
+      </c>
+      <c r="AN3">
+        <v>36</v>
+      </c>
+      <c r="AO3">
+        <v>35</v>
+      </c>
+      <c r="AP3">
+        <v>34</v>
+      </c>
+      <c r="AQ3">
+        <v>33</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>32</v>
+      </c>
+      <c r="AS3">
+        <v>47</v>
+      </c>
+      <c r="AT3">
+        <v>46</v>
+      </c>
+      <c r="AU3">
+        <v>45</v>
+      </c>
+      <c r="AV3">
+        <v>44</v>
+      </c>
+      <c r="AW3">
+        <v>43</v>
+      </c>
+      <c r="AX3">
+        <v>42</v>
+      </c>
+      <c r="AY3">
+        <v>41</v>
+      </c>
+      <c r="AZ3" s="1">
+        <v>40</v>
+      </c>
+      <c r="BA3">
+        <v>55</v>
+      </c>
+      <c r="BB3">
+        <v>54</v>
+      </c>
+      <c r="BC3">
+        <v>53</v>
+      </c>
+      <c r="BD3">
+        <v>52</v>
+      </c>
+      <c r="BE3">
+        <v>51</v>
+      </c>
+      <c r="BF3">
+        <v>50</v>
+      </c>
+      <c r="BG3">
+        <v>49</v>
+      </c>
+      <c r="BH3" s="1">
+        <v>48</v>
+      </c>
+      <c r="BI3">
+        <v>63</v>
+      </c>
+      <c r="BJ3">
+        <v>62</v>
+      </c>
+      <c r="BK3">
+        <v>61</v>
+      </c>
+      <c r="BL3">
+        <v>60</v>
+      </c>
+      <c r="BM3">
+        <v>59</v>
+      </c>
+      <c r="BN3">
+        <v>58</v>
+      </c>
+      <c r="BO3">
+        <v>57</v>
+      </c>
+      <c r="BP3" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7"/>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="7"/>
+      <c r="AZ4" s="7"/>
+      <c r="BA4" s="7"/>
+      <c r="BB4" s="7"/>
+      <c r="BC4" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="BD4" s="18"/>
+      <c r="BE4" s="18"/>
+      <c r="BF4" s="18"/>
+      <c r="BG4" s="18"/>
+      <c r="BH4" s="18"/>
+      <c r="BI4" s="18"/>
+      <c r="BJ4" s="18"/>
+      <c r="BK4" s="18"/>
+      <c r="BL4" s="18"/>
+      <c r="BM4" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="BN4" s="18"/>
+      <c r="BO4" s="18"/>
+      <c r="BP4" s="8"/>
+    </row>
+    <row r="5" spans="1:68" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="18"/>
+      <c r="AW5" s="18"/>
+      <c r="AX5" s="18"/>
+      <c r="AY5" s="18"/>
+      <c r="AZ5" s="18"/>
+      <c r="BA5" s="18"/>
+      <c r="BB5" s="18"/>
+      <c r="BC5" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="BD5" s="7"/>
+      <c r="BE5" s="7"/>
+      <c r="BF5" s="7"/>
+      <c r="BG5" s="7"/>
+      <c r="BH5" s="7"/>
+      <c r="BI5" s="7"/>
+      <c r="BJ5" s="7"/>
+      <c r="BK5" s="7"/>
+      <c r="BL5" s="7"/>
+      <c r="BM5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="BN5" s="7"/>
+      <c r="BO5" s="7"/>
+      <c r="BP5" s="8"/>
+    </row>
+    <row r="6" spans="1:68" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="18"/>
+      <c r="AP6" s="18"/>
+      <c r="AQ6" s="18"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AT6" s="18"/>
+      <c r="AU6" s="18"/>
+      <c r="AV6" s="18"/>
+      <c r="AW6" s="18"/>
+      <c r="AX6" s="18"/>
+      <c r="AY6" s="18"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="BB6" s="18"/>
+      <c r="BC6" s="18"/>
+      <c r="BD6" s="18"/>
+      <c r="BE6" s="18"/>
+      <c r="BF6" s="18"/>
+      <c r="BG6" s="18"/>
+      <c r="BH6" s="8"/>
+      <c r="BI6" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="BJ6" s="7"/>
+      <c r="BK6" s="7"/>
+      <c r="BL6" s="7"/>
+      <c r="BM6" s="7"/>
+      <c r="BN6" s="7"/>
+      <c r="BO6" s="7"/>
+      <c r="BP6" s="8"/>
+    </row>
+    <row r="7" spans="1:68" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="18"/>
+      <c r="BA7" s="18"/>
+      <c r="BB7" s="18"/>
+      <c r="BC7" s="18"/>
+      <c r="BD7" s="18"/>
+      <c r="BE7" s="18"/>
+      <c r="BF7" s="18"/>
+      <c r="BG7" s="18"/>
+      <c r="BH7" s="18"/>
+      <c r="BI7" s="18"/>
+      <c r="BJ7" s="18"/>
+      <c r="BK7" s="18"/>
+      <c r="BL7" s="18"/>
+      <c r="BM7" s="18"/>
+      <c r="BN7" s="18"/>
+      <c r="BO7" s="18"/>
+      <c r="BP7" s="8"/>
+    </row>
+    <row r="8" spans="1:68" s="2" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="17"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="17"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="17"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="17"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="17"/>
+      <c r="AZ8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BP8" s="3"/>
+    </row>
+    <row r="9" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="3"/>
+      <c r="E9" s="17"/>
+      <c r="L9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AR9" s="1"/>
+      <c r="AZ9" s="3"/>
+      <c r="BH9" s="3"/>
+      <c r="BP9" s="3"/>
+    </row>
+    <row r="10" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AR10" s="1"/>
+      <c r="AZ10" s="3"/>
+      <c r="BH10" s="3"/>
+      <c r="BP10" s="3"/>
+    </row>
+    <row r="11" spans="1:68" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="3"/>
+      <c r="E11" s="17"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="17"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="17"/>
+      <c r="AB11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="17"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="17"/>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="17"/>
+      <c r="BH11" s="3"/>
+      <c r="BI11" s="17"/>
+      <c r="BP11" s="3"/>
+    </row>
+    <row r="12" spans="1:68" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AR12" s="1"/>
+      <c r="AZ12" s="3"/>
+      <c r="BH12" s="3"/>
+      <c r="BP12" s="3"/>
+    </row>
+    <row r="13" spans="1:68" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+      <c r="E13" s="17"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="17"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="17"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="17"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="17"/>
+      <c r="AR13" s="1"/>
+      <c r="AZ13" s="3"/>
+      <c r="BH13" s="3"/>
+      <c r="BP13" s="3"/>
+    </row>
+    <row r="14" spans="1:68" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+      <c r="E14" s="17"/>
+      <c r="L14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AR14" s="1"/>
+      <c r="AZ14" s="3"/>
+      <c r="BH14" s="3"/>
+      <c r="BP14" s="3"/>
+    </row>
+    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="AJ15" s="3"/>
+    </row>
+    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="AJ16" s="3"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="T17" s="3"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D31" s="3"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D33" s="3"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D34" s="3"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D41" s="3"/>
+    </row>
+    <row r="44" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="F44" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="AO7:BP7"/>
+    <mergeCell ref="BC5:BL5"/>
+    <mergeCell ref="BM5:BP5"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="O6:X6"/>
+    <mergeCell ref="Y6:AH6"/>
+    <mergeCell ref="AI6:AR6"/>
+    <mergeCell ref="AS6:AZ6"/>
+    <mergeCell ref="BA6:BH6"/>
+    <mergeCell ref="BI6:BP6"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="O4:X4"/>
+    <mergeCell ref="Y4:AH4"/>
+    <mergeCell ref="AI4:AR4"/>
+    <mergeCell ref="AS4:BB4"/>
+    <mergeCell ref="BC4:BL4"/>
+    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="O5:X5"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="M7:X7"/>
+    <mergeCell ref="Y7:AN7"/>
+    <mergeCell ref="A1:BP1"/>
+    <mergeCell ref="Y5:AH5"/>
+    <mergeCell ref="AI5:AR5"/>
+    <mergeCell ref="AS5:BB5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E8:BP40 BC4:BC5 BM4:BM5 O4:O6 AI4:AI6 E4:E7 M7 Y4:Y7 AO7 AS4:AS6 BA6 BI6">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(E4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB002991-6A10-4713-B4D1-359BC8B2BE04}">
+  <dimension ref="A1:AI34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="67" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1">
+        <f>HEX2DEC(RIGHT(C1,LEN(C1)-2))</f>
+        <v>151264320</v>
+      </c>
+      <c r="C1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2">
+        <f>_xlfn.BITRSHIFT(B1,24)</f>
+        <v>9</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"0x"&amp;DEC2HEX(B2)</f>
+        <v>0x9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT(B1,16),255)</f>
+        <v>4</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C5" si="0">"0x"&amp;DEC2HEX(B3)</f>
+        <v>0x4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT(B1,6),1023)</f>
+        <v>113</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>0x71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5">
+        <f>_xlfn.BITAND(B1,63)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>0x0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+    </row>
+    <row r="8" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="12">
+        <v>31</v>
+      </c>
+      <c r="E8" s="12">
+        <v>30</v>
+      </c>
+      <c r="F8" s="12">
+        <v>29</v>
+      </c>
+      <c r="G8" s="12">
+        <v>28</v>
+      </c>
+      <c r="H8" s="12">
+        <v>27</v>
+      </c>
+      <c r="I8" s="12">
+        <v>26</v>
+      </c>
+      <c r="J8" s="12">
+        <v>25</v>
+      </c>
+      <c r="K8" s="13">
+        <v>24</v>
+      </c>
+      <c r="L8" s="12">
+        <v>23</v>
+      </c>
+      <c r="M8" s="12">
+        <v>22</v>
+      </c>
+      <c r="N8" s="12">
+        <v>21</v>
+      </c>
+      <c r="O8" s="12">
+        <v>20</v>
+      </c>
+      <c r="P8" s="12">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>18</v>
+      </c>
+      <c r="R8" s="12">
+        <v>17</v>
+      </c>
+      <c r="S8" s="13">
+        <v>16</v>
+      </c>
+      <c r="T8" s="12">
+        <v>15</v>
+      </c>
+      <c r="U8" s="12">
+        <v>14</v>
+      </c>
+      <c r="V8" s="12">
+        <v>13</v>
+      </c>
+      <c r="W8" s="12">
+        <v>12</v>
+      </c>
+      <c r="X8" s="12">
+        <v>11</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>9</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>8</v>
+      </c>
+      <c r="AB8" s="12">
+        <v>7</v>
+      </c>
+      <c r="AC8" s="13">
+        <v>6</v>
+      </c>
+      <c r="AD8" s="12">
+        <v>5</v>
+      </c>
+      <c r="AE8" s="12">
+        <v>4</v>
+      </c>
+      <c r="AF8" s="12">
+        <v>3</v>
+      </c>
+      <c r="AG8" s="12">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9">
+        <f>HEX2DEC(RIGHT(B9,LEN(B9)-2))</f>
+        <v>33821696</v>
+      </c>
+      <c r="D9" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, D$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, E$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, F$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, G$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, H$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, I$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, J$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, K$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, L$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, M$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, N$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, O$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, P$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, Q$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="R9" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, R$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, S$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, T$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, U$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, V$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, W$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="X9" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, X$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, Y$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="Z9" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, Z$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, AA$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, AB$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, AC$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, AD$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, AE$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, AF$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, AG$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, AH$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C9, AI$8), 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C22" si="1">HEX2DEC(RIGHT(B10,LEN(B10)-2))</f>
+        <v>33821760</v>
+      </c>
+      <c r="D10" s="15">
+        <f t="shared" ref="D10:S22" si="2">_xlfn.BITAND(_xlfn.BITRSHIFT($C10, D$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R10" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="15">
+        <f t="shared" ref="T10:AI22" si="3">_xlfn.BITAND(_xlfn.BITRSHIFT($C10, T$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X10" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z10" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AD10" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>33821824</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R11" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X11" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z11" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AC11" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>33821888</v>
+      </c>
+      <c r="D12" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R12" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X12" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z12" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AC12" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AD12" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>33821952</v>
+      </c>
+      <c r="D13" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R13" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X13" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z13" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AB13" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>33822016</v>
+      </c>
+      <c r="D14" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R14" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AB14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AD14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>33822080</v>
+      </c>
+      <c r="D15" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R15" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X15" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z15" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AB15" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AC15" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>33822144</v>
+      </c>
+      <c r="D16" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R16" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X16" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z16" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AB16" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AC16" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AD16" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>33822208</v>
+      </c>
+      <c r="D17" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R17" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X17" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z17" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AA17" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>33822272</v>
+      </c>
+      <c r="D18" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R18" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X18" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z18" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AA18" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AD18" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>33822336</v>
+      </c>
+      <c r="D19" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R19" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X19" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z19" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AA19" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AC19" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>33816576</v>
+      </c>
+      <c r="D20" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R20" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>33816640</v>
+      </c>
+      <c r="D21" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R21" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AD21" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>33816704</v>
+      </c>
+      <c r="D22" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R22" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AC22" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23">
+        <f>HEX2DEC(RIGHT(B23,LEN(B23)-2))</f>
+        <v>33816832</v>
+      </c>
+      <c r="D23" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, D$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, E$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, F$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, G$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, H$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, I$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, J$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, K$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, L$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, M$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, N$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, O$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, P$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, Q$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="R23" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, R$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, S$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, T$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, U$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, V$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, W$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, X$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, Y$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, Z$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, AA$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="AB23" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, AB$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, AC$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, AD$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, AE$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, AF$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, AG$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, AH$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C23, AI$8), 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24">
+        <f>HEX2DEC(RIGHT(B24,LEN(B24)-2))</f>
+        <v>33816896</v>
+      </c>
+      <c r="D24" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, D$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, E$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, F$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, G$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, H$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, I$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, J$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="K24" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, K$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, L$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, M$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, N$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, O$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, P$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, Q$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="R24" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, R$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, S$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, T$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, U$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, V$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="W24" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, W$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, X$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, Y$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, Z$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, AA$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="AB24" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, AB$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, AC$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="AD24" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, AD$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, AE$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, AF$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, AG$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, AH$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AI24" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C24, AI$8), 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25">
+        <f>HEX2DEC(RIGHT(B25,LEN(B25)-2))</f>
+        <v>33816960</v>
+      </c>
+      <c r="D25" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, D$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, E$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, F$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, G$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, H$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, I$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, J$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="K25" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, K$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, L$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, M$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, N$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, O$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, P$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, Q$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="R25" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, R$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, S$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, T$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, U$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, V$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="W25" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, W$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="X25" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, X$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, Y$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, Z$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, AA$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="AB25" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, AB$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="AC25" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, AC$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, AD$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, AE$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, AF$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, AG$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, AH$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C25, AI$8), 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26">
+        <f>HEX2DEC(RIGHT(B26,LEN(B26)-2))</f>
+        <v>151262208</v>
+      </c>
+      <c r="D26" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, D$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, E$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, F$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, G$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, H$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="I26" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, I$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, J$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, K$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="L26" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, L$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, M$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, N$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, O$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, P$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, Q$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="R26" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, R$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, S$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, T$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, U$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, V$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, W$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="X26" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, X$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, Y$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="Z26" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, Z$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, AA$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, AB$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, AC$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, AD$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, AE$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, AF$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, AG$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, AH$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AI26" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C26, AI$8), 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27">
+        <f>HEX2DEC(RIGHT(B27,LEN(B27)-2))</f>
+        <v>151262272</v>
+      </c>
+      <c r="D27" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, D$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, E$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, F$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, G$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, H$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="I27" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, I$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, J$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, K$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="L27" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, L$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, M$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, N$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, O$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, P$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, Q$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="R27" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, R$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, S$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, T$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, U$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, V$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, W$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="X27" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, X$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, Y$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="Z27" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, Z$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, AA$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, AB$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, AC$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="AD27" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, AD$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, AE$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, AF$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, AG$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, AH$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AI27" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C27, AI$8), 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28">
+        <f>HEX2DEC(RIGHT(B28,LEN(B28)-2))</f>
+        <v>151264256</v>
+      </c>
+      <c r="D28" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, D$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, E$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, F$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, G$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, H$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="I28" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, I$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, J$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, K$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="L28" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, L$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, M$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, N$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, O$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, P$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, Q$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="R28" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, R$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, S$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, T$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, U$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, V$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, W$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="X28" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, X$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="Y28" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, Y$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="Z28" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, Z$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, AA$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, AB$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, AC$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, AD$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, AE$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, AF$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, AG$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, AH$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AI28" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C28, AI$8), 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29">
+        <f>HEX2DEC(RIGHT(B29,LEN(B29)-2))</f>
+        <v>134484992</v>
+      </c>
+      <c r="D29" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, D$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, E$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, F$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, G$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, H$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="I29" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, I$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, J$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, K$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, L$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, M$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, N$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, O$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, P$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, Q$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="R29" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, R$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, S$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, T$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, U$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, V$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, W$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="X29" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, X$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, Y$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="Z29" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, Z$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, AA$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, AB$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, AC$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, AD$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, AE$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, AF$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, AG$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, AH$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AI29" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C29, AI$8), 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30">
+        <f>HEX2DEC(RIGHT(B30,LEN(B30)-2))</f>
+        <v>134487040</v>
+      </c>
+      <c r="D30" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, D$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, E$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, F$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, G$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, H$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="I30" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, I$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, J$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, K$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, L$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, M$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, N$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, O$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, P$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, Q$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="R30" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, R$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, S$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, T$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, U$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, V$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, W$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="X30" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, X$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="Y30" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, Y$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="Z30" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, Z$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, AA$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, AB$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, AC$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, AD$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, AE$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, AF$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, AG$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, AH$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AI30" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C30, AI$8), 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31">
+        <f>HEX2DEC(RIGHT(B31,LEN(B31)-2))</f>
+        <v>33888256</v>
+      </c>
+      <c r="D31" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, D$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, E$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, F$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, G$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, H$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, I$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, J$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="K31" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, K$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, L$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, M$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, N$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, O$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, P$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, Q$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="R31" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, R$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, S$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="T31" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, T$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, U$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, V$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, W$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="X31" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, X$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="Y31" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, Y$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, Z$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, AA$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, AB$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, AC$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, AD$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE31" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, AE$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, AF$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, AG$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AH31" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, AH$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AI31" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C31, AI$8), 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32">
+        <f>HEX2DEC(RIGHT(B32,LEN(B32)-2))</f>
+        <v>33888320</v>
+      </c>
+      <c r="D32" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, D$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, E$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, F$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, G$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, H$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, I$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, J$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="K32" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, K$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, L$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, M$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, N$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, O$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, P$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, Q$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="R32" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, R$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, S$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="T32" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, T$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, U$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, V$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, W$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="X32" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, X$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="Y32" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, Y$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, Z$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, AA$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, AB$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="16">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, AC$8), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="AD32" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, AD$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, AE$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, AF$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, AG$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, AH$8), 1)</f>
+        <v>0</v>
+      </c>
+      <c r="AI32" s="15">
+        <f>_xlfn.BITAND(_xlfn.BITRSHIFT($C32, AI$8), 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K33" s="1"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="S34" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:S7"/>
+    <mergeCell ref="T7:AC7"/>
+    <mergeCell ref="AD7:AI7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D9:AI30 D31:J32 L31:R32 T31:AB32 AD31:AI32">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S31">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC31">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S32">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC32">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCA345B-9211-4253-99D1-2968CD3F5072}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>